--- a/TARJETA PATAYPAMPA/TARJETA DE LIQUIDACION 2012.xlsx
+++ b/TARJETA PATAYPAMPA/TARJETA DE LIQUIDACION 2012.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9525" windowHeight="6990" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9525" windowHeight="6990" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PRINCIPAL" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PRINCIPAL!$B$11:$AA$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">EQUI!$A$1:$J$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">EXPE.TECN.!$A$1:$I$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="125">
   <si>
     <t>COSTO DIRECTO</t>
   </si>
@@ -392,9 +394,6 @@
     <t>GASTOS DE SUPERVISION</t>
   </si>
   <si>
-    <t>Rendicion al Habilito Otorgado Según C/P 15188-2012 - Miguel Angel Valenzuela Rodriguez</t>
-  </si>
-  <si>
     <t>R/C</t>
   </si>
   <si>
@@ -410,15 +409,6 @@
     <t>Abancay, Agosto del 2020</t>
   </si>
   <si>
-    <t>: 4.000010 - Intalacion de Centro de Salud.</t>
-  </si>
-  <si>
-    <t>: 2.149886 - CONSTRUCCION Y EQUIPAMIENTO DEL PUESTO DE SALUD EN LA LOCALIDAD DE SAN NICOLAS DE PIYAY DEL DISTRITO DE PATAYPAMPA, PROVINCIA DE GRAU - APURIMAC.</t>
-  </si>
-  <si>
-    <t>: Recursos Ordinarios.</t>
-  </si>
-  <si>
     <t>5739-2012</t>
   </si>
   <si>
@@ -444,6 +434,18 @@
   </si>
   <si>
     <t>VAN . . .</t>
+  </si>
+  <si>
+    <t>Rendicion al Habilito Otorgado Según C/P 11105-2013 - Miguel Angel Valenzuela Rodriguez</t>
+  </si>
+  <si>
+    <t>Rendicion al Habilito Otorgado Según C/P 11105-2012 - Miguel Angel Valenzuela Rodriguez</t>
+  </si>
+  <si>
+    <t>EXPEDIENTE TECNICO</t>
+  </si>
+  <si>
+    <t>CAPACITACION</t>
   </si>
 </sst>
 </file>
@@ -636,7 +638,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1013,16 +1015,55 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1037,30 +1078,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1068,15 +1096,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1084,7 +1103,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1093,47 +1112,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1143,27 +1125,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1174,7 +1139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,10 +1187,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1307,276 +1268,322 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="31" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="33" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1859,37 +1866,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:AA24"/>
   <sheetViews>
-    <sheetView topLeftCell="K5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="47" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="47" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="47" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="45" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="45" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="46" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" style="47" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="47" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="47" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" style="47" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="47" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="47" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="47" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" style="47" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" style="47" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="47" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="45" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="45" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="45" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="45" customWidth="1"/>
+    <col min="18" max="19" width="7.7109375" style="45" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" style="45" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="45" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="45" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" customWidth="1"/>
-    <col min="24" max="25" width="15.7109375" style="47" customWidth="1"/>
-    <col min="26" max="26" width="30.7109375" style="47" customWidth="1"/>
-    <col min="27" max="27" width="40.7109375" style="47" customWidth="1"/>
+    <col min="24" max="25" width="15.7109375" style="45" customWidth="1"/>
+    <col min="26" max="26" width="30.7109375" style="45" customWidth="1"/>
+    <col min="27" max="27" width="40.7109375" style="45" customWidth="1"/>
     <col min="257" max="257" width="1.7109375" customWidth="1"/>
     <col min="258" max="258" width="10.7109375" customWidth="1"/>
     <col min="259" max="259" width="3.7109375" customWidth="1"/>
@@ -3305,349 +3311,349 @@
       <c r="AA1"/>
     </row>
     <row r="2" spans="2:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
     </row>
     <row r="7" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>5</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19">
         <v>6</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <v>1</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <v>2</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="19">
         <v>4</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
     </row>
     <row r="11" spans="2:27" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="23" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="24" t="s">
+      <c r="R11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="S11" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="T11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="U11" s="23" t="s">
+      <c r="U11" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="V11" s="24" t="s">
+      <c r="V11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="W11" s="23" t="s">
+      <c r="W11" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="24" t="s">
+      <c r="X11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y11" s="23" t="s">
+      <c r="Y11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="24" t="s">
+      <c r="Z11" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AA11" s="23" t="s">
+      <c r="AA11" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="2:27" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -3662,16 +3668,16 @@
       <c r="F12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <v>552143</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="26">
         <v>0</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="26">
         <v>0</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="27">
         <v>41194</v>
       </c>
       <c r="K12" s="16" t="s">
@@ -3684,31 +3690,31 @@
         <v>67</v>
       </c>
       <c r="N12" s="16"/>
-      <c r="O12" s="30" t="s">
+      <c r="O12" s="28" t="s">
         <v>68</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="30" t="s">
+      <c r="R12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="S12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="T12" s="30" t="s">
+      <c r="T12" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="U12" s="30" t="s">
+      <c r="U12" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="V12" s="30" t="s">
+      <c r="V12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="W12" s="29"/>
+      <c r="W12" s="27"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
@@ -3716,8 +3722,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -3732,16 +3738,16 @@
       <c r="F13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <v>0</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="26">
         <v>552143</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="26">
         <v>0</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="27">
         <v>41197</v>
       </c>
       <c r="K13" s="16" t="s">
@@ -3754,38 +3760,38 @@
         <v>67</v>
       </c>
       <c r="N13" s="16"/>
-      <c r="O13" s="30" t="s">
+      <c r="O13" s="28" t="s">
         <v>68</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q13" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="R13" s="30" t="s">
+      <c r="R13" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="S13" s="30" t="s">
+      <c r="S13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="T13" s="30" t="s">
+      <c r="T13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="U13" s="30" t="s">
+      <c r="U13" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="V13" s="30" t="s">
+      <c r="V13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="W13" s="29"/>
+      <c r="W13" s="27"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="14"/>
     </row>
     <row r="14" spans="2:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="126">
+      <c r="B14" s="76">
         <v>5739</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -3800,16 +3806,16 @@
       <c r="F14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="26">
         <v>0</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="26">
         <v>0</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="26">
         <v>-31730.5</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="27">
         <v>41620</v>
       </c>
       <c r="K14" s="16" t="s">
@@ -3820,31 +3826,31 @@
         <v>67</v>
       </c>
       <c r="N14" s="16"/>
-      <c r="O14" s="30" t="s">
+      <c r="O14" s="28" t="s">
         <v>68</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" s="30" t="s">
+      <c r="Q14" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="R14" s="30" t="s">
+      <c r="R14" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="S14" s="30" t="s">
+      <c r="S14" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="T14" s="30" t="s">
+      <c r="T14" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="U14" s="30" t="s">
+      <c r="U14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="V14" s="30" t="s">
+      <c r="V14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="W14" s="29">
+      <c r="W14" s="27">
         <v>41200</v>
       </c>
       <c r="X14" s="16" t="s">
@@ -3861,7 +3867,7 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="126">
+      <c r="B15" s="76">
         <v>5739</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -3876,16 +3882,16 @@
       <c r="F15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <v>0</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="26">
         <v>0</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="26">
         <v>552143</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="27">
         <v>41200</v>
       </c>
       <c r="K15" s="16" t="s">
@@ -3898,31 +3904,31 @@
         <v>67</v>
       </c>
       <c r="N15" s="16"/>
-      <c r="O15" s="30" t="s">
+      <c r="O15" s="28" t="s">
         <v>68</v>
       </c>
       <c r="P15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="30" t="s">
+      <c r="Q15" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="R15" s="30" t="s">
+      <c r="R15" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="S15" s="30" t="s">
+      <c r="S15" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="T15" s="30" t="s">
+      <c r="T15" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="U15" s="30" t="s">
+      <c r="U15" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="V15" s="30" t="s">
+      <c r="V15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="W15" s="29">
+      <c r="W15" s="27">
         <v>41200</v>
       </c>
       <c r="X15" s="16" t="s">
@@ -3938,8 +3944,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
         <v>8574</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -3954,16 +3960,16 @@
       <c r="F16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="26">
         <v>3793</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="26">
         <v>0</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="26">
         <v>0</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="27">
         <v>41263</v>
       </c>
       <c r="K16" s="16" t="s">
@@ -3976,38 +3982,38 @@
         <v>67</v>
       </c>
       <c r="N16" s="16"/>
-      <c r="O16" s="30" t="s">
+      <c r="O16" s="28" t="s">
         <v>89</v>
       </c>
       <c r="P16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Q16" s="30" t="s">
+      <c r="Q16" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="R16" s="30" t="s">
+      <c r="R16" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="S16" s="30" t="s">
+      <c r="S16" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="T16" s="30" t="s">
+      <c r="T16" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="U16" s="30" t="s">
+      <c r="U16" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="V16" s="30" t="s">
+      <c r="V16" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="W16" s="29"/>
+      <c r="W16" s="27"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="14"/>
     </row>
-    <row r="17" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
         <v>8574</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -4022,16 +4028,16 @@
       <c r="F17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="26">
         <v>0</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="26">
         <v>3793</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="26">
         <v>0</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="27">
         <v>41263</v>
       </c>
       <c r="K17" s="16" t="s">
@@ -4044,38 +4050,38 @@
         <v>67</v>
       </c>
       <c r="N17" s="16"/>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="28" t="s">
         <v>89</v>
       </c>
       <c r="P17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="30" t="s">
+      <c r="Q17" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="R17" s="30" t="s">
+      <c r="R17" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="S17" s="30" t="s">
+      <c r="S17" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="T17" s="30" t="s">
+      <c r="T17" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="U17" s="30" t="s">
+      <c r="U17" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="V17" s="30" t="s">
+      <c r="V17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="W17" s="29"/>
+      <c r="W17" s="27"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="14"/>
     </row>
     <row r="18" spans="2:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="125">
+      <c r="B18" s="75">
         <v>8574</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -4090,16 +4096,16 @@
       <c r="F18" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="26">
         <v>0</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="26">
         <v>0</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="26">
         <v>-1300</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="27">
         <v>43648</v>
       </c>
       <c r="K18" s="16" t="s">
@@ -4110,31 +4116,31 @@
         <v>67</v>
       </c>
       <c r="N18" s="16"/>
-      <c r="O18" s="30" t="s">
+      <c r="O18" s="28" t="s">
         <v>89</v>
       </c>
       <c r="P18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Q18" s="30" t="s">
+      <c r="Q18" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="R18" s="30" t="s">
+      <c r="R18" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="S18" s="30" t="s">
+      <c r="S18" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="T18" s="30" t="s">
+      <c r="T18" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="U18" s="30" t="s">
+      <c r="U18" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="V18" s="30" t="s">
+      <c r="V18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="W18" s="29">
+      <c r="W18" s="27">
         <v>43648</v>
       </c>
       <c r="X18" s="16" t="s">
@@ -4151,7 +4157,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="125">
+      <c r="B19" s="75">
         <v>8574</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -4166,16 +4172,16 @@
       <c r="F19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="26">
         <v>0</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="26">
         <v>0</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="26">
         <v>3793</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="27">
         <v>41269</v>
       </c>
       <c r="K19" s="16" t="s">
@@ -4188,31 +4194,31 @@
         <v>67</v>
       </c>
       <c r="N19" s="16"/>
-      <c r="O19" s="30" t="s">
+      <c r="O19" s="28" t="s">
         <v>89</v>
       </c>
       <c r="P19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" s="30" t="s">
+      <c r="Q19" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="R19" s="30" t="s">
+      <c r="R19" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="S19" s="30" t="s">
+      <c r="S19" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="T19" s="30" t="s">
+      <c r="T19" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="U19" s="30" t="s">
+      <c r="U19" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="V19" s="30" t="s">
+      <c r="V19" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="W19" s="29">
+      <c r="W19" s="27">
         <v>41269</v>
       </c>
       <c r="X19" s="16" t="s">
@@ -4229,165 +4235,165 @@
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="36"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="34"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37">
         <f>SUM(G12:G20)</f>
         <v>555936</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="37">
         <f>SUM(H12:H20)</f>
         <v>555936</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="37">
         <f>SUM(I12:I20)</f>
         <v>522905.5</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="43"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="41"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="44" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="Z22" s="44" t="s">
+      <c r="Z22" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="AA22" s="45">
+      <c r="AA22" s="43">
         <v>0.49664351851851851</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="46" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="44" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="B11:AA19">
@@ -4395,11 +4401,6 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B11:F11"/>
@@ -4413,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,28 +4427,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -4600,43 +4601,43 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="108" t="s">
+      <c r="H8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="107" t="s">
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="91" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="102"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
@@ -4646,9 +4647,9 @@
       <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="102"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="86"/>
       <c r="H9" s="13" t="s">
         <v>19</v>
       </c>
@@ -4685,164 +4686,164 @@
       <c r="S9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="102"/>
+      <c r="T9" s="86"/>
     </row>
     <row r="10" spans="1:20" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56">
+      <c r="A10" s="52">
         <v>1</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="91" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="53">
         <v>5739</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="51">
         <f>SUM(H10:P10)</f>
         <v>520412.5</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="51">
         <v>148489</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="51">
         <f>251454-20892.5</f>
         <v>230561.5</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="51">
         <f>32514-634</f>
         <v>31880</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="51">
         <v>50000</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="51">
         <v>41166</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="51">
         <f>9000-9000</f>
         <v>0</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="51">
         <v>6000</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="51">
         <f>1204-1204</f>
         <v>0</v>
       </c>
-      <c r="P10" s="90">
+      <c r="P10" s="71">
         <v>12316</v>
       </c>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="81" t="s">
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="69" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56">
+      <c r="A11" s="52">
         <v>2</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="53">
+      <c r="B11" s="55"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="50">
         <v>11105</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="58">
         <v>8574</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="51">
         <f>SUM(H11:S11)</f>
         <v>2493</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="55">
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="51">
         <f>1896-596</f>
         <v>1300</v>
       </c>
-      <c r="S11" s="55">
+      <c r="S11" s="51">
         <f>1897-704</f>
         <v>1193</v>
       </c>
-      <c r="T11" s="81" t="s">
+      <c r="T11" s="69" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="69"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70">
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61">
         <f>SUM(G10:G11)</f>
         <v>522905.5</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="61">
         <f>SUM(H10)</f>
         <v>148489</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="61">
         <f t="shared" ref="I12:P12" si="0">SUM(I10)</f>
         <v>230561.5</v>
       </c>
-      <c r="J12" s="70">
+      <c r="J12" s="61">
         <f t="shared" si="0"/>
         <v>31880</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="61">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="61">
         <f t="shared" si="0"/>
         <v>41166</v>
       </c>
-      <c r="M12" s="70">
+      <c r="M12" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N12" s="70">
+      <c r="N12" s="61">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="O12" s="70">
+      <c r="O12" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="70">
+      <c r="P12" s="61">
         <f t="shared" si="0"/>
         <v>12316</v>
       </c>
-      <c r="Q12" s="70">
+      <c r="Q12" s="61">
         <f>SUM(Q10:Q11)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="70">
+      <c r="R12" s="61">
         <f>SUM(R10:R11)</f>
         <v>1300</v>
       </c>
-      <c r="S12" s="70">
+      <c r="S12" s="61">
         <f>SUM(S10:S11)</f>
         <v>1193</v>
       </c>
-      <c r="T12" s="71"/>
+      <c r="T12" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4867,77 +4868,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="57.140625" customWidth="1"/>
+    <col min="11" max="11" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
+      <c r="A1" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="A2" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4957,11 +4959,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="130" t="s">
-        <v>119</v>
+      <c r="C6" s="78" t="s">
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4976,49 +4978,49 @@
         <v>3</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="131" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="123" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
+      <c r="C7" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="131" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
+      <c r="C8" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5044,46 +5046,46 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104" t="s">
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="108" t="s">
+      <c r="H11" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="107" t="s">
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="91" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="102"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="13" t="s">
         <v>19</v>
       </c>
@@ -5093,66 +5095,72 @@
       <c r="J12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="102"/>
-    </row>
-    <row r="13" spans="1:11" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56">
+      <c r="K12" s="86"/>
+    </row>
+    <row r="13" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52">
         <v>1</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="53">
+      <c r="B13" s="117">
+        <v>41620</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="50">
         <v>10975</v>
       </c>
-      <c r="F13" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="55">
+      <c r="F13" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="51">
         <f>SUM(H13:J13)</f>
         <v>410930.5</v>
       </c>
-      <c r="H13" s="95">
+      <c r="H13" s="73">
         <v>148489</v>
       </c>
-      <c r="I13" s="95">
+      <c r="I13" s="73">
         <f>251454-20892.5</f>
         <v>230561.5</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J13" s="73">
         <f>32514-634</f>
         <v>31880</v>
       </c>
-      <c r="K13" s="58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110" t="s">
+      <c r="K13" s="54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="94">
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="121">
         <f>SUM(G13)</f>
         <v>410930.5</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="121">
         <f>SUM(H13)</f>
         <v>148489</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="121">
         <f t="shared" ref="I14:J14" si="0">SUM(I13)</f>
         <v>230561.5</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="121">
         <f t="shared" si="0"/>
         <v>31880</v>
       </c>
-      <c r="K14" s="66"/>
+      <c r="K14" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5170,8 +5178,8 @@
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:K12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.51" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5180,75 +5188,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="57.140625" customWidth="1"/>
+    <col min="8" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
+      <c r="A1" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="A2" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="A4" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5268,11 +5276,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="130" t="s">
-        <v>119</v>
+      <c r="C6" s="78" t="s">
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5287,49 +5295,49 @@
         <v>3</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="131" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="123" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
+      <c r="C7" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="131" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
+      <c r="C8" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5355,132 +5363,138 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="104" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="132"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="107" t="s">
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="91" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="138"/>
-      <c r="B12" s="73" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="74" t="s">
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="114"/>
+      <c r="K12" s="102"/>
     </row>
     <row r="13" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75">
+      <c r="A13" s="66">
         <v>2</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="77">
+      <c r="B13" s="117">
+        <v>41620</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="124">
+        <v>10975</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="67">
         <f>SUM(H13:J13)</f>
         <v>6000</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="67">
         <f>9000-9000</f>
         <v>0</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="67">
         <v>6000</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="67">
         <f>1204-1204</f>
         <v>0</v>
       </c>
-      <c r="K13" s="78" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110" t="s">
+      <c r="K13" s="108" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="80">
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142">
         <f>SUM(G13)</f>
         <v>6000</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="142">
         <f t="shared" ref="H14:J14" si="0">SUM(H13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I14" s="142">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J14" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="81"/>
+      <c r="K14" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="D7:K7"/>
     <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5488,8 +5502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5501,62 +5515,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
+      <c r="A1" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="A2" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="A4" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5576,11 +5590,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="130" t="s">
-        <v>119</v>
+      <c r="C6" s="78" t="s">
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5595,675 +5609,808 @@
         <v>3</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="131" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="123" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
+      <c r="C7" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="110"/>
+      <c r="C9" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-    </row>
-    <row r="9" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="131" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143">
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="113">
         <v>2012</v>
       </c>
+      <c r="J10" s="114"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104" t="s">
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="107" t="s">
+      <c r="H11" s="74"/>
+      <c r="I11" s="91" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="114"/>
-      <c r="B12" s="73" t="s">
+      <c r="A12" s="102"/>
+      <c r="B12" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="74" t="s">
+      <c r="E12" s="106"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="114"/>
-    </row>
-    <row r="13" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="144">
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="125">
         <v>1</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="87" t="s">
+      <c r="B13" s="126">
+        <v>41620</v>
+      </c>
+      <c r="C13" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="130">
         <v>5739</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="131">
         <f>SUM(H13:H13)</f>
         <v>12316</v>
       </c>
-      <c r="H13" s="89">
+      <c r="H13" s="132">
         <v>12316</v>
       </c>
-      <c r="I13" s="145" t="s">
-        <v>32</v>
+      <c r="I13" s="133" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="146" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149">
+      <c r="A14" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="139">
         <f>SUM(G13)</f>
         <v>12316</v>
       </c>
-      <c r="H14" s="149">
+      <c r="H14" s="139">
         <f t="shared" ref="H14" si="0">SUM(H13)</f>
         <v>12316</v>
       </c>
-      <c r="I14" s="150"/>
+      <c r="I14" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="13" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+    </row>
+    <row r="4" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="80"/>
+    </row>
+    <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="80"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="110"/>
+      <c r="C9" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="11">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="102"/>
+      <c r="B12" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" spans="1:11" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="143">
+        <v>1</v>
+      </c>
+      <c r="B13" s="126">
+        <v>41620</v>
+      </c>
+      <c r="C13" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="144">
+        <v>5739</v>
+      </c>
+      <c r="G13" s="67">
+        <f>SUM(H13:I13)</f>
+        <v>91166</v>
+      </c>
+      <c r="H13" s="67">
+        <v>50000</v>
+      </c>
+      <c r="I13" s="67">
+        <v>41166</v>
+      </c>
+      <c r="J13" s="145" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="146">
+        <f>SUM(G13)</f>
+        <v>91166</v>
+      </c>
+      <c r="H14" s="147">
+        <f t="shared" ref="H14:I14" si="0">SUM(H13)</f>
+        <v>50000</v>
+      </c>
+      <c r="I14" s="146">
+        <f t="shared" si="0"/>
+        <v>41166</v>
+      </c>
+      <c r="J14" s="148"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:J12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="57.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="11">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="107" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="114"/>
-      <c r="B9" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="114"/>
-    </row>
-    <row r="10" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93">
-        <v>1</v>
-      </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="83">
-        <v>5739</v>
-      </c>
-      <c r="G10" s="84">
-        <f>SUM(H10:I10)</f>
-        <v>91166</v>
-      </c>
-      <c r="H10" s="84">
-        <v>50000</v>
-      </c>
-      <c r="I10" s="84">
-        <v>41166</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="18">
-        <f>SUM(G10)</f>
-        <v>91166</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" ref="H11:I11" si="0">SUM(H10)</f>
-        <v>50000</v>
-      </c>
-      <c r="I11" s="18">
-        <f t="shared" si="0"/>
-        <v>41166</v>
-      </c>
-      <c r="J11" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:J9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E10" numberStoredAsText="1"/>
+    <ignoredError sqref="E13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+    </row>
+    <row r="4" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>113</v>
+      <c r="B6" s="4"/>
+      <c r="C6" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+    </row>
+    <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
+      <c r="B9" s="110"/>
+      <c r="C9" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9">
+      <c r="D9" s="110" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="101" t="s">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B12" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104" t="s">
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F12" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G12" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="109" t="s">
+      <c r="H12" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="109"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="107" t="s">
+      <c r="I12" s="93"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="91" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="102"/>
-      <c r="B10" s="49" t="s">
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="102"/>
+      <c r="B13" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C13" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D13" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="13" t="s">
+      <c r="E13" s="106"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I13" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J13" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="102"/>
-    </row>
-    <row r="11" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56">
+      <c r="K13" s="102"/>
+    </row>
+    <row r="14" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="155">
         <v>1</v>
       </c>
-      <c r="B11" s="62">
-        <v>41639</v>
-      </c>
-      <c r="C11" s="52" t="s">
+      <c r="B14" s="117">
+        <v>41620</v>
+      </c>
+      <c r="C14" s="156" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="E14" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="F14" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="55">
-        <f>SUM(H11:J11)</f>
+      <c r="G14" s="160">
+        <f>SUM(H14:J14)</f>
         <v>2493</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55">
+      <c r="H14" s="161"/>
+      <c r="I14" s="160">
         <f>1896-596</f>
         <v>1300</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J14" s="160">
         <f>1897-704</f>
         <v>1193</v>
       </c>
-      <c r="K11" s="58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="120" t="s">
+      <c r="K14" s="162" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="59">
-        <f>SUM(G11:G11)</f>
+      <c r="B15" s="150"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="152">
+        <f>SUM(G14:G14)</f>
         <v>2493</v>
       </c>
-      <c r="H12" s="60">
-        <f>SUM(H11:H11)</f>
+      <c r="H15" s="154">
+        <f>SUM(H14:H14)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="59">
-        <f>SUM(I11:I11)</f>
+      <c r="I15" s="152">
+        <f>SUM(I14:I14)</f>
         <v>1300</v>
       </c>
-      <c r="J12" s="60">
-        <f>SUM(J11:J11)</f>
+      <c r="J15" s="154">
+        <f>SUM(J14:J14)</f>
         <v>1193</v>
       </c>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K14" s="63"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K15" s="64" t="s">
-        <v>112</v>
+      <c r="K15" s="153"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="56"/>
+    </row>
+    <row r="18" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K18" s="57" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="K9:K10"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TARJETA PATAYPAMPA/TARJETA DE LIQUIDACION 2012.xlsx
+++ b/TARJETA PATAYPAMPA/TARJETA DE LIQUIDACION 2012.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA PATAYPAMPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SUPERVISION2020\TARJETA PATAYPAMPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1357,87 +1357,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1462,15 +1381,6 @@
     <xf numFmtId="17" fontId="10" fillId="0" borderId="31" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1508,29 +1418,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="17" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1548,15 +1440,6 @@
     <xf numFmtId="4" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1584,6 +1467,123 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3581,13 +3581,13 @@
       <c r="AA10" s="19"/>
     </row>
     <row r="11" spans="2:27" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="21" t="s">
         <v>40</v>
       </c>
@@ -4414,7 +4414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -4427,28 +4427,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -4601,43 +4601,43 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88" t="s">
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
       <c r="S8" s="48"/>
-      <c r="T8" s="91" t="s">
+      <c r="T8" s="134" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
@@ -4647,9 +4647,9 @@
       <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="129"/>
       <c r="H9" s="13" t="s">
         <v>19</v>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="S9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="86"/>
+      <c r="T9" s="129"/>
     </row>
     <row r="10" spans="1:20" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52">
@@ -4868,7 +4868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -4884,34 +4884,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
@@ -4927,19 +4927,19 @@
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4981,16 +4981,16 @@
       <c r="C7" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -5000,16 +5000,16 @@
       <c r="C8" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -5046,34 +5046,34 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88" t="s">
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="92" t="s">
+      <c r="H11" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="91" t="s">
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="134" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="47" t="s">
         <v>16</v>
       </c>
@@ -5083,9 +5083,9 @@
       <c r="D12" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="86"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="129"/>
       <c r="H12" s="13" t="s">
         <v>19</v>
       </c>
@@ -5095,13 +5095,13 @@
       <c r="J12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="86"/>
+      <c r="K12" s="129"/>
     </row>
     <row r="13" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52">
         <v>1</v>
       </c>
-      <c r="B13" s="117">
+      <c r="B13" s="90">
         <v>41620</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -5136,31 +5136,31 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="121">
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="91">
         <f>SUM(G13)</f>
         <v>410930.5</v>
       </c>
-      <c r="H14" s="121">
+      <c r="H14" s="91">
         <f>SUM(H13)</f>
         <v>148489</v>
       </c>
-      <c r="I14" s="121">
+      <c r="I14" s="91">
         <f t="shared" ref="I14:J14" si="0">SUM(I13)</f>
         <v>230561.5</v>
       </c>
-      <c r="J14" s="121">
+      <c r="J14" s="91">
         <f t="shared" si="0"/>
         <v>31880</v>
       </c>
-      <c r="K14" s="122"/>
+      <c r="K14" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5188,7 +5188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -5201,34 +5201,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
@@ -5244,19 +5244,19 @@
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5298,16 +5298,16 @@
       <c r="C7" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -5317,16 +5317,16 @@
       <c r="C8" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -5363,32 +5363,32 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="88" t="s">
+      <c r="C11" s="150"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="91" t="s">
+      <c r="H11" s="144"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="134" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="97"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="64" t="s">
         <v>16</v>
       </c>
@@ -5398,9 +5398,9 @@
       <c r="D12" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="143"/>
       <c r="H12" s="65" t="s">
         <v>24</v>
       </c>
@@ -5410,13 +5410,13 @@
       <c r="J12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="102"/>
+      <c r="K12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="66">
         <v>2</v>
       </c>
-      <c r="B13" s="117">
+      <c r="B13" s="90">
         <v>41620</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -5425,7 +5425,7 @@
       <c r="D13" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="124">
+      <c r="E13" s="94">
         <v>10975</v>
       </c>
       <c r="F13" s="70" t="s">
@@ -5446,39 +5446,44 @@
         <f>1204-1204</f>
         <v>0</v>
       </c>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="81" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="142">
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="106">
         <f>SUM(G13)</f>
         <v>6000</v>
       </c>
-      <c r="H14" s="142">
+      <c r="H14" s="106">
         <f t="shared" ref="H14:J14" si="0">SUM(H13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="142">
+      <c r="I14" s="106">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="J14" s="142">
+      <c r="J14" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="123"/>
+      <c r="K14" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:K12"/>
@@ -5487,11 +5492,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
@@ -5502,7 +5502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -5515,34 +5515,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
@@ -5558,19 +5558,19 @@
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5612,14 +5612,14 @@
       <c r="C7" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
     </row>
@@ -5631,75 +5631,75 @@
       <c r="C8" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
       <c r="J8" s="80"/>
       <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="111" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113">
+      <c r="A10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="86">
         <v>2012</v>
       </c>
-      <c r="J10" s="114"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88" t="s">
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="134" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="74"/>
-      <c r="I11" s="91" t="s">
+      <c r="I11" s="134" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102"/>
+      <c r="A12" s="143"/>
       <c r="B12" s="64" t="s">
         <v>16</v>
       </c>
@@ -5709,65 +5709,70 @@
       <c r="D12" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="143"/>
       <c r="H12" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="102"/>
+      <c r="I12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="125">
+      <c r="A13" s="95">
         <v>1</v>
       </c>
-      <c r="B13" s="126">
+      <c r="B13" s="96">
         <v>41620</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="130">
+      <c r="F13" s="100">
         <v>5739</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="101">
         <f>SUM(H13:H13)</f>
         <v>12316</v>
       </c>
-      <c r="H13" s="132">
+      <c r="H13" s="102">
         <v>12316</v>
       </c>
-      <c r="I13" s="133" t="s">
+      <c r="I13" s="103" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="139">
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="104">
         <f>SUM(G13)</f>
         <v>12316</v>
       </c>
-      <c r="H14" s="139">
+      <c r="H14" s="104">
         <f t="shared" ref="H14" si="0">SUM(H13)</f>
         <v>12316</v>
       </c>
-      <c r="I14" s="140"/>
+      <c r="I14" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="A14:F14"/>
@@ -5775,11 +5780,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -5793,7 +5793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -5807,34 +5807,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
@@ -5850,19 +5850,19 @@
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5904,15 +5904,15 @@
       <c r="C7" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
       <c r="K7" s="80"/>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5923,34 +5923,34 @@
       <c r="C8" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
       <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="111" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5968,31 +5968,31 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88" t="s">
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="91" t="s">
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="134" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102"/>
+      <c r="A12" s="143"/>
       <c r="B12" s="64" t="s">
         <v>16</v>
       </c>
@@ -6002,34 +6002,34 @@
       <c r="D12" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="143"/>
       <c r="H12" s="65" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="102"/>
+      <c r="J12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="143">
+      <c r="A13" s="107">
         <v>1</v>
       </c>
-      <c r="B13" s="126">
+      <c r="B13" s="96">
         <v>41620</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="144">
+      <c r="F13" s="108">
         <v>5739</v>
       </c>
       <c r="G13" s="67">
@@ -6042,48 +6042,48 @@
       <c r="I13" s="67">
         <v>41166</v>
       </c>
-      <c r="J13" s="145" t="s">
+      <c r="J13" s="109" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="146">
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="110">
         <f>SUM(G13)</f>
         <v>91166</v>
       </c>
-      <c r="H14" s="147">
+      <c r="H14" s="111">
         <f t="shared" ref="H14:I14" si="0">SUM(H13)</f>
         <v>50000</v>
       </c>
-      <c r="I14" s="146">
+      <c r="I14" s="110">
         <f t="shared" si="0"/>
         <v>41166</v>
       </c>
-      <c r="J14" s="148"/>
+      <c r="J14" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
@@ -6097,7 +6097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="78" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -6110,34 +6110,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
@@ -6153,19 +6153,19 @@
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -6207,16 +6207,16 @@
       <c r="C7" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -6226,34 +6226,34 @@
       <c r="C8" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="111" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6272,34 +6272,34 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88" t="s">
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="93"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="91" t="s">
+      <c r="I12" s="136"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="134" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="64" t="s">
         <v>16</v>
       </c>
@@ -6309,9 +6309,9 @@
       <c r="D13" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="143"/>
       <c r="H13" s="65" t="s">
         <v>28</v>
       </c>
@@ -6321,70 +6321,70 @@
       <c r="J13" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="102"/>
+      <c r="K13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="155">
+      <c r="A14" s="116">
         <v>1</v>
       </c>
-      <c r="B14" s="117">
+      <c r="B14" s="90">
         <v>41620</v>
       </c>
-      <c r="C14" s="156" t="s">
+      <c r="C14" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="157" t="s">
+      <c r="D14" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="158" t="s">
+      <c r="E14" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="159" t="s">
+      <c r="F14" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="160">
+      <c r="G14" s="121">
         <f>SUM(H14:J14)</f>
         <v>2493</v>
       </c>
-      <c r="H14" s="161"/>
-      <c r="I14" s="160">
+      <c r="H14" s="122"/>
+      <c r="I14" s="121">
         <f>1896-596</f>
         <v>1300</v>
       </c>
-      <c r="J14" s="160">
+      <c r="J14" s="121">
         <f>1897-704</f>
         <v>1193</v>
       </c>
-      <c r="K14" s="162" t="s">
+      <c r="K14" s="123" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="150"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="152">
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="113">
         <f>SUM(G14:G14)</f>
         <v>2493</v>
       </c>
-      <c r="H15" s="154">
+      <c r="H15" s="115">
         <f>SUM(H14:H14)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="152">
+      <c r="I15" s="113">
         <f>SUM(I14:I14)</f>
         <v>1300</v>
       </c>
-      <c r="J15" s="154">
+      <c r="J15" s="115">
         <f>SUM(J14:J14)</f>
         <v>1193</v>
       </c>
-      <c r="K15" s="153"/>
+      <c r="K15" s="114"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" s="56"/>
@@ -6396,11 +6396,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A12:A13"/>
@@ -6409,6 +6404,11 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
